--- a/models/DynamicsOfIRS-PKRSignaling/IRS-PKR.xlsx
+++ b/models/DynamicsOfIRS-PKRSignaling/IRS-PKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="24560" windowHeight="15280" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="200" windowWidth="24560" windowHeight="15400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
   <si>
-    <t>f3=-x2^2*x3^2-x2*x3^2-x2^2-x3^2+x2+x3</t>
+    <t>f2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -121,10 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>f4=-x3^2*x4^2-x3*x4^2-x3^2-x4^2+x3+x4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>x5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,14 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">f5=-x4^2*x5^2-x4*x5^2-x4^2-x5^2+x4+x5 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">f6=-x5^2*x6^2-x5*x6^2-x5^2-x6^2+x5+x6 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IRST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">f7=-x6^2*x18^2*x7^2-x6^2*x18*x7^2-x6*x18^2*x7^2+x6^2*x18*x7+x6*x18^2*x7+x6^2*x7^2-x6*x18*x7^2+x18^2*x7^2-x6^2*x18-x6*x18^2+x6*x18*x7-x6*x18-x7^2+x7 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Insulin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -356,10 +364,6 @@
   </si>
   <si>
     <t>x2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f2=-x1^2*x2^2-x1*x2^2-x1^2-x2^2+x1+x2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -513,10 +517,6 @@
   </si>
   <si>
     <t>IRST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f9=-x8^2*x9^2-x8*x9^2-x8^2-x9^2+x8+x9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1060,36 +1060,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AC143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
@@ -1107,51 +1107,51 @@
         <v>131</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="AC1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="12"/>
       <c r="S2" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>132</v>
@@ -1163,27 +1163,27 @@
         <v>132</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -1348,19 +1348,19 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1755,49 +1755,49 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>140</v>
@@ -1806,30 +1806,30 @@
         <v>140</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
@@ -1841,31 +1841,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>137</v>
@@ -1877,30 +1877,30 @@
         <v>141</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G22" s="5">
         <v>2</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G23" s="8">
         <v>2</v>
@@ -2473,77 +2473,77 @@
     </row>
     <row r="25" spans="1:29">
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="13"/>
       <c r="G27" s="15">
@@ -2592,7 +2592,7 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B28" s="13"/>
       <c r="G28" s="15">
@@ -2641,7 +2641,7 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="15">
         <v>0</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B30" s="13"/>
       <c r="G30" s="15">
@@ -2738,7 +2738,7 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B31" s="13"/>
       <c r="G31" s="15">
@@ -2787,7 +2787,7 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B32" s="13"/>
       <c r="G32" s="15">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B33" s="13"/>
       <c r="G33" s="15">
@@ -2849,8 +2849,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
@@ -2885,7 +2884,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B34" s="13"/>
       <c r="G34" s="15">
@@ -2898,8 +2897,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
@@ -2934,7 +2932,7 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="B35" s="13"/>
       <c r="G35" s="15">
@@ -3103,7 +3101,7 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B39" s="13"/>
       <c r="G39" s="15">
@@ -3143,7 +3141,7 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="13"/>
       <c r="G40" s="15">
@@ -3183,7 +3181,7 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B41" s="13"/>
       <c r="G41" s="15">
@@ -3223,7 +3221,7 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B42" s="13"/>
       <c r="G42" s="15">
@@ -3263,7 +3261,7 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B43" s="13"/>
       <c r="G43" s="15">
@@ -3303,7 +3301,7 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="13"/>
       <c r="G44" s="15">
@@ -3343,7 +3341,7 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B45" s="13"/>
       <c r="G45" s="15">
@@ -3356,8 +3354,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
@@ -3383,7 +3380,7 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B46" s="13"/>
       <c r="G46" s="15">
@@ -3396,8 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
@@ -3423,7 +3419,7 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="13"/>
       <c r="G47" s="15">
@@ -3463,7 +3459,7 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="13"/>
       <c r="G48" s="15">
@@ -3503,7 +3499,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B49" s="13"/>
       <c r="G49" s="15">
@@ -3699,21 +3695,21 @@
         <v>136</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="G56" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>138</v>
@@ -3725,16 +3721,16 @@
         <v>137</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4441,28 +4437,28 @@
     </row>
     <row r="85" spans="7:16">
       <c r="G85" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="7:16">
@@ -4470,25 +4466,25 @@
         <v>141</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N86" s="14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="7:16">
@@ -5195,30 +5191,30 @@
     </row>
     <row r="115" spans="7:16">
       <c r="G115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H115" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="I115" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="7:16">
       <c r="G116" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="7:16">
@@ -5600,6 +5596,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
